--- a/artfynd/A 51906-2019.xlsx
+++ b/artfynd/A 51906-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:AY64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7668,6 +7668,342 @@
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>112358151</v>
+      </c>
+      <c r="B62" t="n">
+        <v>90307</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>918</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Tajgaskinn</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Laurilia sulcata</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Burt) Pouzar</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Njaka, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>523688</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7204521</v>
+      </c>
+      <c r="S62" t="n">
+        <v>25</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>112358152</v>
+      </c>
+      <c r="B63" t="n">
+        <v>89889</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Ostticka</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Skeletocutis odora</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Sacc.) Ginns</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Njaka, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>523699</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7204491</v>
+      </c>
+      <c r="S63" t="n">
+        <v>25</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>112358153</v>
+      </c>
+      <c r="B64" t="n">
+        <v>89881</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2063</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Grantickeporing</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Skeletocutis chrysella</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Njaka, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>523699</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7204491</v>
+      </c>
+      <c r="S64" t="n">
+        <v>25</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 51906-2019.xlsx
+++ b/artfynd/A 51906-2019.xlsx
@@ -7673,7 +7673,7 @@
         <v>112358151</v>
       </c>
       <c r="B62" t="n">
-        <v>90307</v>
+        <v>90321</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7782,10 +7782,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112358152</v>
+        <v>112358153</v>
       </c>
       <c r="B63" t="n">
-        <v>89889</v>
+        <v>89895</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7798,21 +7798,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1506</v>
+        <v>2063</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7894,10 +7894,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112358153</v>
+        <v>112358152</v>
       </c>
       <c r="B64" t="n">
-        <v>89881</v>
+        <v>89903</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7910,21 +7910,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2063</v>
+        <v>1506</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 51906-2019.xlsx
+++ b/artfynd/A 51906-2019.xlsx
@@ -7670,10 +7670,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112358151</v>
+        <v>112358152</v>
       </c>
       <c r="B62" t="n">
-        <v>90321</v>
+        <v>89903</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7686,21 +7686,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>918</v>
+        <v>1506</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tajgaskinn</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Laurilia sulcata</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Burt) Pouzar</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>523688</v>
+        <v>523699</v>
       </c>
       <c r="R62" t="n">
-        <v>7204521</v>
+        <v>7204491</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7894,10 +7894,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112358152</v>
+        <v>112358151</v>
       </c>
       <c r="B64" t="n">
-        <v>89903</v>
+        <v>90321</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7910,21 +7910,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1506</v>
+        <v>918</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Tajgaskinn</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Laurilia sulcata</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Burt) Pouzar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7934,10 +7934,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>523699</v>
+        <v>523688</v>
       </c>
       <c r="R64" t="n">
-        <v>7204491</v>
+        <v>7204521</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AD64" t="b">
